--- a/public/preprocessing/@Lutfiab7.xlsx
+++ b/public/preprocessing/@Lutfiab7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20630</v>
+        <v>24082</v>
       </c>
       <c r="C2" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kenapa si gw mudah banget care sama orang sedangkan orang susah banget care sama gw bis</t>
+          <t>kangen sihh tapi apalah dayaku cuma bisa lihat foto doang</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kenapa', 'si', 'gw', 'mudah', 'banget', 'care', 'sama', 'orang', 'sedangkan', 'orang', 'susah', 'banget', 'care', 'sama', 'gw', 'bis']</t>
+          <t>['kangen', 'sihh', 'tapi', 'apalah', 'dayaku', 'cuma', 'bisa', 'lihat', 'foto', 'doang']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 16 outcomes&gt;</t>
+          <t>['kangen', 'sih', 'tapi', 'apalah', 'dayaku', 'cuma', 'bisa', 'lihat', 'foto', 'doang']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['gw', 'mudah', 'banget', 'care', 'orang', 'orang', 'susah', 'banget', 'care', 'gw', 'bis']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['gw', 'mudah', 'banget', 'care', 'orang', 'orang', 'susah', 'banget', 'care', 'gw', 'bis']</t>
+          <t>['kangen', 'apalah', 'dayaku', 'lihat', 'foto', 'doang']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['kangen', 'apa', 'daya', 'lihat', 'foto', 'doang']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20631</v>
+        <v>24083</v>
       </c>
       <c r="C3" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>berjuang sendiri nyemangatin diri sendiri ngandelin diri sendiri terimakasih untuk aku aku sayang aku</t>
+          <t>anjirrr pindah delok ganti loe gue</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['berjuang', 'sendiri', 'nyemangatin', 'diri', 'sendiri', 'ngandelin', 'diri', 'sendiri', 'terimakasih', 'untuk', 'aku', 'aku', 'sayang', 'aku']</t>
+          <t>['anjirrr', 'pindah', 'delok', 'ganti', 'loe', 'gue']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 14 outcomes&gt;</t>
+          <t>['anjir', 'pindah', 'lihat', 'ganti', 'kamu', 'gue']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['berjuang', 'nyemangatin', 'ngandelin', 'terimakasih', 'sayang']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['juang', 'nyemangatin', 'ngandelin', 'terimakasih', 'sayang']</t>
+          <t>['anjir', 'pindah', 'lihat', 'ganti', 'gue']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['anjir', 'pindah', 'lihat', 'ganti', 'gue']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20632</v>
+        <v>24084</v>
       </c>
       <c r="C4" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sudah cukup semangatnya waktunya berputus asa</t>
+          <t>lu ada masalah apa sih anjir</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['sudah', 'cukup', 'semangatnya', 'waktunya', 'berputus', 'asa']</t>
+          <t>['lu', 'ada', 'masalah', 'apa', 'sih', 'anjir']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['kamu', 'ada', 'masalah', 'apa', 'sih', 'anjir']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['semangatnya', 'berputus', 'asa']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['semangat', 'putus', 'asa']</t>
+          <t>['anjir']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['anjir']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20633</v>
+        <v>24085</v>
       </c>
       <c r="C5" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>sadar oo cokkkk koe iki mung dinggo pelampiasan nk dee bosen</t>
+          <t>kenapa si gw mudah banget care sama orang sedangkan orang susah banget care sama gw bis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['sadar', 'oo', 'cokkkk', 'koe', 'iki', 'mung', 'dinggo', 'pelampiasan', 'nk', 'dee', 'bosen']</t>
+          <t>['kenapa', 'si', 'gw', 'mudah', 'banget', 'care', 'sama', 'orang', 'sedangkan', 'orang', 'susah', 'banget', 'care', 'sama', 'gw', 'bis']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['kenapa', 'sih', 'gue', 'mudah', 'banget', 'care', 'sama', 'orang', 'sedangkan', 'orang', 'susah', 'banget', 'care', 'sama', 'gue', 'bis']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['sadar', 'oo', 'cokkkk', 'koe', 'iki', 'mung', 'dinggo', 'pelampiasan', 'nk', 'dee', 'bosen']</t>
+          <t>&lt;FreqDist with 11 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['sadar', 'oo', 'cokkkk', 'koe', 'iki', 'mung', 'dinggo', 'lampias', 'nk', 'dee', 'bosen']</t>
+          <t>['gue', 'mudah', 'banget', 'care', 'orang', 'orang', 'susah', 'banget', 'care', 'gue', 'bis']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['gue', 'mudah', 'banget', 'care', 'orang', 'orang', 'susah', 'banget', 'care', 'gue', 'bis']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20634</v>
+        <v>24086</v>
       </c>
       <c r="C6" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>skrang jamannya tidak ada yang ditakuti sobskarng jamannya darah dibalas dengan darah</t>
+          <t>berjuang sendiri nyemangatin diri sendiri ngandelin diri sendiri terimakasih untuk aku aku sayang aku</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['skrang', 'jamannya', 'tidak', 'ada', 'yang', 'ditakuti', 'sobskarng', 'jamannya', 'darah', 'dibalas', 'dengan', 'darah']</t>
+          <t>['berjuang', 'sendiri', 'nyemangatin', 'diri', 'sendiri', 'ngandelin', 'diri', 'sendiri', 'terimakasih', 'untuk', 'aku', 'aku', 'sayang', 'aku']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['berjuang', 'sendiri', 'nyemangatin', 'diri', 'sendiri', 'ngandelin', 'diri', 'sendiri', 'terima, kasih', 'untuk', 'aku', 'aku', 'sayang', 'aku']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['skrang', 'jamannya', 'ditakuti', 'sobskarng', 'jamannya', 'darah', 'dibalas', 'darah']</t>
+          <t>&lt;FreqDist with 9 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['skrang', 'jaman', 'takut', 'sobskarng', 'jaman', 'darah', 'balas', 'darah']</t>
+          <t>['berjuang', 'nyemangatin', 'ngandelin', 'terima, kasih', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['juang', 'nyemangatin', 'ngandelin', 'terima kasih', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20635</v>
+        <v>24087</v>
       </c>
       <c r="C7" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>turunkan jokowi jadi rakyat biasabiar dia merasakan jadi kuli desa</t>
+          <t>sudah cukup semangatnya waktunya berputus asa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['turunkan', 'jokowi', 'jadi', 'rakyat', 'biasabiar', 'dia', 'merasakan', 'jadi', 'kuli', 'desa']</t>
+          <t>['sudah', 'cukup', 'semangatnya', 'waktunya', 'berputus', 'asa']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['sudah', 'cukup', 'semangatnya', 'waktunya', 'berputus', 'asa']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['turunkan', 'jokowi', 'rakyat', 'biasabiar', 'merasakan', 'kuli', 'desa']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['turun', 'jokowi', 'rakyat', 'biasabiar', 'rasa', 'kuli', 'desa']</t>
+          <t>['semangatnya', 'berputus', 'asa']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['semangat', 'putus', 'asa']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20636</v>
+        <v>24088</v>
       </c>
       <c r="C8" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>semangat berjuang kawan</t>
+          <t>sadar oo cokkkk koe iki mung dinggo pelampiasan nk dee bosen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['semangat', 'berjuang', 'kawan']</t>
+          <t>['sadar', 'oo', 'cokkkk', 'koe', 'iki', 'mung', 'dinggo', 'pelampiasan', 'nk', 'dee', 'bosen']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sadar', 'oh', 'cokkkk', 'koe', 'ini', 'mung', 'dinggo', 'pelampiasan', 'natural, killer', 'adik', 'bosan']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['semangat', 'berjuang', 'kawan']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['semangat', 'juang', 'kawan']</t>
+          <t>['sadar', 'oh', 'cokkkk', 'koe', 'mung', 'dinggo', 'pelampiasan', 'natural, killer', 'adik', 'bosan']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['sadar', 'oh', 'cokkkk', 'koe', 'mung', 'dinggo', 'lampias', 'natural killer', 'adik', 'bosan']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20637</v>
+        <v>24089</v>
       </c>
       <c r="C9" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>zq selamat berjuang kawan</t>
+          <t>skrang jamannya tidak ada yang ditakuti sobskarng jamannya darah dibalas dengan darah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['zq', 'selamat', 'berjuang', 'kawan']</t>
+          <t>['skrang', 'jamannya', 'tidak', 'ada', 'yang', 'ditakuti', 'sobskarng', 'jamannya', 'darah', 'dibalas', 'dengan', 'darah']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['sekarang', 'zamannya', 'tidak', 'ada', 'yang', 'ditakuti', 'sobskarng', 'zamannya', 'darah', 'dibalas', 'dengan', 'darah']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['zq', 'selamat', 'berjuang', 'kawan']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['zq', 'selamat', 'juang', 'kawan']</t>
+          <t>['zamannya', 'ditakuti', 'sobskarng', 'zamannya', 'darah', 'dibalas', 'darah']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['zaman', 'takut', 'sobskarng', 'zaman', 'darah', 'balas', 'darah']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20638</v>
+        <v>24090</v>
       </c>
       <c r="C10" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>lebih baik hidup dari sampah daripada hidup jadi sampah</t>
+          <t>turunkan jokowi jadi rakyat biasabiar dia merasakan jadi kuli desa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['lebih', 'baik', 'hidup', 'dari', 'sampah', 'daripada', 'hidup', 'jadi', 'sampah']</t>
+          <t>['turunkan', 'jokowi', 'jadi', 'rakyat', 'biasabiar', 'dia', 'merasakan', 'jadi', 'kuli', 'desa']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
+          <t>['turunkan', 'jokowi', 'jadi', 'rakyat', 'biasabiar', 'dia', 'merasakan', 'jadi', 'kuli', 'desa']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['hidup', 'sampah', 'hidup', 'sampah']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['hidup', 'sampah', 'hidup', 'sampah']</t>
+          <t>['turunkan', 'jokowi', 'rakyat', 'biasabiar', 'merasakan', 'kuli', 'desa']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['turun', 'jokowi', 'rakyat', 'biasabiar', 'rasa', 'kuli', 'desa']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20639</v>
+        <v>24091</v>
       </c>
       <c r="C11" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jujur salah nggk jujur dipendem terlalu jujur dibodohbodohin apa gua harus jadi manusia apatis</t>
+          <t>semangat berjuang kawan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['jujur', 'salah', 'nggk', 'jujur', 'dipendem', 'terlalu', 'jujur', 'dibodohbodohin', 'apa', 'gua', 'harus', 'jadi', 'manusia', 'apatis']</t>
+          <t>['semangat', 'berjuang', 'kawan']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['semangat', 'berjuang', 'kawan']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['jujur', 'salah', 'nggk', 'jujur', 'dipendem', 'jujur', 'dibodohbodohin', 'gua', 'manusia', 'apatis']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['jujur', 'salah', 'nggk', 'jujur', 'dipendem', 'jujur', 'dibodohbodohin', 'gua', 'manusia', 'apatis']</t>
+          <t>['semangat', 'berjuang', 'kawan']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['semangat', 'juang', 'kawan']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20640</v>
+        <v>24092</v>
       </c>
       <c r="C12" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pagi pagi dapet info thr bahagia banget donk eh taunya sore dapet info phk damagenya kenceng amat asw</t>
+          <t>zq selamat berjuang kawan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['pagi', 'pagi', 'dapet', 'info', 'thr', 'bahagia', 'banget', 'donk', 'eh', 'taunya', 'sore', 'dapet', 'info', 'phk', 'damagenya', 'kenceng', 'amat', 'asw']</t>
+          <t>['zq', 'selamat', 'berjuang', 'kawan']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['zq', 'selamat', 'berjuang', 'kawan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['pagi', 'pagi', 'dapet', 'info', 'thr', 'bahagia', 'banget', 'donk', 'eh', 'taunya', 'sore', 'dapet', 'info', 'phk', 'damagenya', 'kenceng', 'asw']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['pagi', 'pagi', 'dapet', 'info', 'thr', 'bahagia', 'banget', 'donk', 'eh', 'tau', 'sore', 'dapet', 'info', 'phk', 'damagenya', 'kenceng', 'asw']</t>
+          <t>['zq', 'selamat', 'berjuang', 'kawan']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['zq', 'selamat', 'juang', 'kawan']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20641</v>
+        <v>24093</v>
       </c>
       <c r="C13" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>lu sangeegua sangeee ya udah hayukkk ngwe</t>
+          <t>lebih baik hidup dari sampah daripada hidup jadi sampah</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['lu', 'sangeegua', 'sangeee', 'ya', 'udah', 'hayukkk', 'ngwe']</t>
+          <t>['lebih', 'baik', 'hidup', 'dari', 'sampah', 'daripada', 'hidup', 'jadi', 'sampah']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['lebih', 'baik', 'hidup', 'dari', 'sampah', 'daripada', 'hidup', 'jadi', 'sampah']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['lu', 'sangeegua', 'sangeee', 'udah', 'hayukkk', 'ngwe']</t>
+          <t>&lt;FreqDist with 7 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['lu', 'sangeegua', 'sangeee', 'udah', 'hayukkk', 'ngwe']</t>
+          <t>['hidup', 'sampah', 'hidup', 'sampah']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['hidup', 'sampah', 'hidup', 'sampah']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20642</v>
+        <v>24094</v>
       </c>
       <c r="C14" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>batal gak sih puasanya ketika kita menangis saat nonton hafidz indonesia</t>
+          <t>jujur salah nggk jujur dipendem terlalu jujur dibodohbodohin apa gua harus jadi manusia apatis</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['batal', 'gak', 'sih', 'puasanya', 'ketika', 'kita', 'menangis', 'saat', 'nonton', 'hafidz', 'indonesia']</t>
+          <t>['jujur', 'salah', 'nggk', 'jujur', 'dipendem', 'terlalu', 'jujur', 'dibodohbodohin', 'apa', 'gua', 'harus', 'jadi', 'manusia', 'apatis']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['jujur', 'salah', 'tidak', 'jujur', 'dipendem', 'terlalu', 'jujur', 'dibodohbodohin', 'apa', 'gue', 'harus', 'jadi', 'manusia', 'apatis']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['batal', 'puasanya', 'menangis', 'nonton', 'hafidz', 'indonesia']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['batal', 'puasa', 'menang', 'nonton', 'hafidz', 'indonesia']</t>
+          <t>['jujur', 'salah', 'jujur', 'dipendem', 'jujur', 'dibodohbodohin', 'gue', 'manusia', 'apatis']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['jujur', 'salah', 'jujur', 'dipendem', 'jujur', 'dibodohbodohin', 'gue', 'manusia', 'apatis']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20643</v>
+        <v>24095</v>
       </c>
       <c r="C15" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>hidupku cuman sebatas rebahan rebahan dan rebahan</t>
+          <t>pagi pagi dapet info thr bahagia banget donk eh taunya sore dapet info phk damagenya kenceng amat asw</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['hidupku', 'cuman', 'sebatas', 'rebahan', 'rebahan', 'dan', 'rebahan']</t>
+          <t>['pagi', 'pagi', 'dapet', 'info', 'thr', 'bahagia', 'banget', 'donk', 'eh', 'taunya', 'sore', 'dapet', 'info', 'phk', 'damagenya', 'kenceng', 'amat', 'asw']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 7 outcomes&gt;</t>
+          <t>['pagi', 'pagi', 'dapat', 'info', 'tunjangan, hari, raya', 'bahagia', 'banget', 'dong', 'eh', 'taunya', 'sore', 'dapat', 'info', 'pemutusan, hubungan, kerja', 'damagenya', 'kencang', 'amat', 'anjing']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['hidupku', 'cuman', 'sebatas', 'rebahan', 'rebahan', 'rebahan']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['hidup', 'cuman', 'batas', 'rebah', 'rebah', 'rebah']</t>
+          <t>['pagi', 'pagi', 'info', 'tunjangan, hari, raya', 'bahagia', 'banget', 'eh', 'taunya', 'sore', 'info', 'pemutusan, hubungan, kerja', 'damagenya', 'kencang', 'anjing']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['pagi', 'pagi', 'info', 'tunjang hari raya', 'bahagia', 'banget', 'eh', 'tau', 'sore', 'info', 'putus hubung kerja', 'damagenya', 'kencang', 'anjing']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20644</v>
+        <v>24096</v>
       </c>
       <c r="C16" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>apaa sih bedanya virus kuman dan bakteri serius nanya</t>
+          <t>lu sangeegua sangeee ya udah hayukkk ngwe</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['apaa', 'sih', 'bedanya', 'virus', 'kuman', 'dan', 'bakteri', 'serius', 'nanya']</t>
+          <t>['lu', 'sangeegua', 'sangeee', 'ya', 'udah', 'hayukkk', 'ngwe']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kamu', 'sangeegua', 'sangeee', 'ya', 'sudah', 'hayukkk', 'ngwe']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['apaa', 'bedanya', 'virus', 'kuman', 'bakteri', 'serius', 'nanya']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['apaa', 'beda', 'virus', 'kuman', 'bakteri', 'serius', 'nanya']</t>
+          <t>['sangeegua', 'sangeee', 'hayukkk', 'ngwe']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['sangeegua', 'sangeee', 'hayukkk', 'ngwe']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20645</v>
+        <v>24097</v>
       </c>
       <c r="C17" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>lah sama njir</t>
+          <t>batal gak sih puasanya ketika kita menangis saat nonton hafidz indonesia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['lah', 'sama', 'njir']</t>
+          <t>['batal', 'gak', 'sih', 'puasanya', 'ketika', 'kita', 'menangis', 'saat', 'nonton', 'hafidz', 'indonesia']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['batal', 'tidak', 'sih', 'puasanya', 'ketika', 'kita', 'menangis', 'saat', 'menonton', 'hafiz', 'indonesia']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['njir']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['njir']</t>
+          <t>['batal', 'puasanya', 'menangis', 'menonton', 'hafiz', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['batal', 'puasa', 'menang', 'tonton', 'hafiz', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20646</v>
+        <v>24098</v>
       </c>
       <c r="C18" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>cewe kalo ngeluarin darah kotor kan waktu pms klo cowok ngeluarin darah kotor lewat paa coba ya kali masa kencing darah</t>
+          <t>hidupku cuman sebatas rebahan rebahan dan rebahan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['cewe', 'kalo', 'ngeluarin', 'darah', 'kotor', 'kan', 'waktu', 'pms', 'klo', 'cowok', 'ngeluarin', 'darah', 'kotor', 'lewat', 'paa', 'coba', 'ya', 'kali', 'masa', 'kencing', 'darah']</t>
+          <t>['hidupku', 'cuman', 'sebatas', 'rebahan', 'rebahan', 'dan', 'rebahan']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
+          <t>['hidupku', 'cuma', 'sebatas', 'rebahan', 'rebahan', 'dan', 'rebahan']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['cewe', 'ngeluarin', 'darah', 'kotor', 'pms', 'cowok', 'ngeluarin', 'darah', 'kotor', 'paa', 'coba', 'kali', 'kencing', 'darah']</t>
+          <t>&lt;FreqDist with 5 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['cewe', 'ngeluarin', 'darah', 'kotor', 'pms', 'cowok', 'ngeluarin', 'darah', 'kotor', 'paa', 'coba', 'kali', 'kencing', 'darah']</t>
+          <t>['hidupku', 'sebatas', 'rebahan', 'rebahan', 'rebahan']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['hidup', 'batas', 'rebah', 'rebah', 'rebah']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20647</v>
+        <v>24099</v>
       </c>
       <c r="C19" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>baru kali ini liburan panjang tapi terasa membosankan</t>
+          <t>apaa sih bedanya virus kuman dan bakteri serius nanya</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['baru', 'kali', 'ini', 'liburan', 'panjang', 'tapi', 'terasa', 'membosankan']</t>
+          <t>['apaa', 'sih', 'bedanya', 'virus', 'kuman', 'dan', 'bakteri', 'serius', 'nanya']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['apa', 'sih', 'bedanya', 'virus', 'kuman', 'dan', 'bakteri', 'serius', 'bertanya']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['kali', 'liburan', 'membosankan']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['kali', 'libur', 'bosan']</t>
+          <t>['bedanya', 'virus', 'kuman', 'bakteri', 'serius']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['beda', 'virus', 'kuman', 'bakteri', 'serius']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20648</v>
+        <v>24100</v>
       </c>
       <c r="C20" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jangan malu jika gajimu sedikit tapi malu lah jika kamu tidak mempunyai gaji lebih baik berpenghasilan sedikit dari pada nol besar</t>
+          <t>lah sama njir</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['jangan', 'malu', 'jika', 'gajimu', 'sedikit', 'tapi', 'malu', 'lah', 'jika', 'kamu', 'tidak', 'mempunyai', 'gaji', 'lebih', 'baik', 'berpenghasilan', 'sedikit', 'dari', 'pada', 'nol', 'besar']</t>
+          <t>['lah', 'sama', 'njir']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['lah', 'sama', 'anjir']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['malu', 'gajimu', 'malu', 'gaji', 'berpenghasilan', 'nol']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['malu', 'gaji', 'malu', 'gaji', 'hasil', 'nol']</t>
+          <t>['anjir']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['anjir']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20649</v>
+        <v>24101</v>
       </c>
       <c r="C21" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>udah capek mau ngapain nonton drakor udah nonton ftv udah nonton anime udah game udah reba</t>
+          <t>cewe kalo ngeluarin darah kotor kan waktu pms klo cowok ngeluarin darah kotor lewat paa coba ya kali masa kencing darah</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['udah', 'capek', 'mau', 'ngapain', 'nonton', 'drakor', 'udah', 'nonton', 'ftv', 'udah', 'nonton', 'anime', 'udah', 'game', 'udah', 'reba']</t>
+          <t>['cewe', 'kalo', 'ngeluarin', 'darah', 'kotor', 'kan', 'waktu', 'pms', 'klo', 'cowok', 'ngeluarin', 'darah', 'kotor', 'lewat', 'paa', 'coba', 'ya', 'kali', 'masa', 'kencing', 'darah']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 16 outcomes&gt;</t>
+          <t>['cewek', 'kalau', 'mengeluarkan', 'darah', 'kotor', 'kan', 'waktu', 'pms', 'kalau', 'cowok', 'mengeluarkan', 'darah', 'kotor', 'lewat', 'paa', 'coba', 'ya', 'kali', 'masa', 'kencing', 'darah']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['udah', 'capek', 'ngapain', 'nonton', 'drakor', 'udah', 'nonton', 'ftv', 'udah', 'nonton', 'anime', 'udah', 'game', 'udah', 'reba']</t>
+          <t>&lt;FreqDist with 16 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['udah', 'capek', 'ngapain', 'nonton', 'drakor', 'udah', 'nonton', 'ftv', 'udah', 'nonton', 'anime', 'udah', 'game', 'udah', 'reba']</t>
+          <t>['cewek', 'mengeluarkan', 'darah', 'kotor', 'pms', 'cowok', 'mengeluarkan', 'darah', 'kotor', 'paa', 'coba', 'kali', 'kencing', 'darah']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['cewek', 'keluar', 'darah', 'kotor', 'pms', 'cowok', 'keluar', 'darah', 'kotor', 'paa', 'coba', 'kali', 'kencing', 'darah']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20650</v>
+        <v>24102</v>
       </c>
       <c r="C22" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>kerja capek rebahan juga capek dasar aku</t>
+          <t>baru kali ini liburan panjang tapi terasa membosankan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['kerja', 'capek', 'rebahan', 'juga', 'capek', 'dasar', 'aku']</t>
+          <t>['baru', 'kali', 'ini', 'liburan', 'panjang', 'tapi', 'terasa', 'membosankan']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['baru', 'kali', 'ini', 'liburan', 'panjang', 'tapi', 'terasa', 'membosankan']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['kerja', 'capek', 'rebahan', 'capek', 'dasar']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['kerja', 'capek', 'rebah', 'capek', 'dasar']</t>
+          <t>['kali', 'liburan', 'membosankan']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['kali', 'libur', 'bosan']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20651</v>
+        <v>24103</v>
       </c>
       <c r="C23" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>aku dianggap kebal virus oleh perusahaan tapi jika pulang aku dianggap pembawa virus oleh orang kampung</t>
+          <t>jangan malu jika gajimu sedikit tapi malu lah jika kamu tidak mempunyai gaji lebih baik berpenghasilan sedikit dari pada nol besar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['aku', 'dianggap', 'kebal', 'virus', 'oleh', 'perusahaan', 'tapi', 'jika', 'pulang', 'aku', 'dianggap', 'pembawa', 'virus', 'oleh', 'orang', 'kampung']</t>
+          <t>['jangan', 'malu', 'jika', 'gajimu', 'sedikit', 'tapi', 'malu', 'lah', 'jika', 'kamu', 'tidak', 'mempunyai', 'gaji', 'lebih', 'baik', 'berpenghasilan', 'sedikit', 'dari', 'pada', 'nol', 'besar']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>['jangan', 'malu', 'jika', 'gajimu', 'sedikit', 'tapi', 'malu', 'lah', 'jika', 'kamu', 'tidak', 'mempunyai', 'gaji', 'lebih', 'baik', 'berpenghasilan', 'sedikit', 'dari', 'pada', 'nol', 'besar']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['dianggap', 'kebal', 'virus', 'perusahaan', 'pulang', 'dianggap', 'pembawa', 'virus', 'orang', 'kampung']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['anggap', 'kebal', 'virus', 'usaha', 'pulang', 'anggap', 'bawa', 'virus', 'orang', 'kampung']</t>
+          <t>['malu', 'gajimu', 'malu', 'gaji', 'berpenghasilan', 'nol']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['malu', 'gaji', 'malu', 'gaji', 'hasil', 'nol']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20652</v>
+        <v>24104</v>
       </c>
       <c r="C24" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rebahan lagi</t>
+          <t>udah capek mau ngapain nonton drakor udah nonton ftv udah nonton anime udah game udah reba</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rebahan', 'lagi']</t>
+          <t>['udah', 'capek', 'mau', 'ngapain', 'nonton', 'drakor', 'udah', 'nonton', 'ftv', 'udah', 'nonton', 'anime', 'udah', 'game', 'udah', 'reba']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sudah', 'cape', 'mau', 'apa', 'menonton', 'drama, korea', 'sudah', 'menonton', 'film, televisi', 'sudah', 'menonton', 'anime', 'sudah', 'game', 'sudah', 'reba']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['rebahan']</t>
+          <t>&lt;FreqDist with 10 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['rebah']</t>
+          <t>['cape', 'menonton', 'drama, korea', 'menonton', 'film, televisi', 'menonton', 'anime', 'game', 'reba']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['cape', 'tonton', 'drama korea', 'tonton', 'film televisi', 'tonton', 'anime', 'game', 'reba']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20653</v>
+        <v>24105</v>
       </c>
       <c r="C25" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>percuma lu sekolah lamalama eh ujungnya malah lulus jalur corona</t>
+          <t>kerja capek rebahan juga capek dasar aku</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['percuma', 'lu', 'sekolah', 'lamalama', 'eh', 'ujungnya', 'malah', 'lulus', 'jalur', 'corona']</t>
+          <t>['kerja', 'capek', 'rebahan', 'juga', 'capek', 'dasar', 'aku']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['kerja', 'cape', 'rebahan', 'juga', 'cape', 'dasar', 'aku']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['lu', 'sekolah', 'lamalama', 'eh', 'ujungnya', 'lulus', 'jalur', 'corona']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['lu', 'sekolah', 'lamalama', 'eh', 'ujung', 'lulus', 'jalur', 'corona']</t>
+          <t>['kerja', 'cape', 'rebahan', 'cape', 'dasar']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['kerja', 'cape', 'rebah', 'cape', 'dasar']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20654</v>
+        <v>24106</v>
       </c>
       <c r="C26" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>pantang keluar kamar sebelum kebelet berak</t>
+          <t>aku dianggap kebal virus oleh perusahaan tapi jika pulang aku dianggap pembawa virus oleh orang kampung</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['pantang', 'keluar', 'kamar', 'sebelum', 'kebelet', 'berak']</t>
+          <t>['aku', 'dianggap', 'kebal', 'virus', 'oleh', 'perusahaan', 'tapi', 'jika', 'pulang', 'aku', 'dianggap', 'pembawa', 'virus', 'oleh', 'orang', 'kampung']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['aku', 'dianggap', 'kebal', 'virus', 'oleh', 'perusahaan', 'tapi', 'jika', 'pulang', 'aku', 'dianggap', 'pembawa', 'virus', 'oleh', 'orang', 'kampung']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['pantang', 'kamar', 'kebelet', 'berak']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['pantang', 'kamar', 'kebelet', 'berak']</t>
+          <t>['dianggap', 'kebal', 'virus', 'perusahaan', 'pulang', 'dianggap', 'pembawa', 'virus', 'orang', 'kampung']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['anggap', 'kebal', 'virus', 'usaha', 'pulang', 'anggap', 'bawa', 'virus', 'orang', 'kampung']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20655</v>
+        <v>24107</v>
       </c>
       <c r="C27" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>penjara njir</t>
+          <t>rebahan lagi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['penjara', 'njir']</t>
+          <t>['rebahan', 'lagi']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['rebahan', 'lagi']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['penjara', 'njir']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['penjara', 'njir']</t>
+          <t>['rebahan']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['rebah']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20656</v>
+        <v>24108</v>
       </c>
       <c r="C28" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ojo karantina kamar lah</t>
+          <t>percuma lu sekolah lamalama eh ujungnya malah lulus jalur corona</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['ojo', 'karantina', 'kamar', 'lah']</t>
+          <t>['percuma', 'lu', 'sekolah', 'lamalama', 'eh', 'ujungnya', 'malah', 'lulus', 'jalur', 'corona']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['percuma', 'kamu', 'sekolah', 'lama, lama', 'eh', 'ujungnya', 'malah', 'lulus', 'jalur', 'corona']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['ojo', 'karantina', 'kamar']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['ojo', 'karantina', 'kamar']</t>
+          <t>['sekolah', 'lama, lama', 'eh', 'ujungnya', 'lulus', 'jalur', 'corona']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['sekolah', 'lama lama', 'eh', 'ujung', 'lulus', 'jalur', 'corona']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20657</v>
+        <v>24109</v>
       </c>
       <c r="C29" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>until tomorrow apaan sihhh</t>
+          <t>pantang keluar kamar sebelum kebelet berak</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['until', 'tomorrow', 'apaan', 'sihhh']</t>
+          <t>['pantang', 'keluar', 'kamar', 'sebelum', 'kebelet', 'berak']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pantang', 'keluar', 'kamar', 'sebelum', 'kebelet', 'berak']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['until', 'tomorrow', 'sihhh']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['until', 'tomorrow', 'sihhh']</t>
+          <t>['pantang', 'kamar', 'kebelet', 'berak']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['pantang', 'kamar', 'kebelet', 'berak']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20658</v>
+        <v>24110</v>
       </c>
       <c r="C30" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>nih bapak nakutin aja</t>
+          <t>penjara njir</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['nih', 'bapak', 'nakutin', 'aja']</t>
+          <t>['penjara', 'njir']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['penjara', 'anjir']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['nakutin']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['nakutin']</t>
+          <t>['penjara', 'anjir']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['penjara', 'anjir']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20659</v>
+        <v>24111</v>
       </c>
       <c r="C31" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>gara gara corona banyak yang tanya kerja tanpa keluar rumah jawaban gw dadio pelacur cuk merg</t>
+          <t>ojo karantina kamar lah</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['gara', 'gara', 'corona', 'banyak', 'yang', 'tanya', 'kerja', 'tanpa', 'keluar', 'rumah', 'jawaban', 'gw', 'dadio', 'pelacur', 'cuk', 'merg']</t>
+          <t>['ojo', 'karantina', 'kamar', 'lah']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['ojek, online', 'karantina', 'kamar', 'lah']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['gara', 'gara', 'corona', 'kerja', 'rumah', 'gw', 'dadio', 'pelacur', 'cuk', 'merg']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['gara', 'gara', 'corona', 'kerja', 'rumah', 'gw', 'dadio', 'lacur', 'cuk', 'merg']</t>
+          <t>['ojek, online', 'karantina', 'kamar']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['ojek online', 'karantina', 'kamar']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20660</v>
+        <v>24112</v>
       </c>
       <c r="C32" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>yang diingat atasan itu bukan kerja kerasmu tapi kesalahan mu</t>
+          <t>until tomorrow apaan sihhh</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['yang', 'diingat', 'atasan', 'itu', 'bukan', 'kerja', 'kerasmu', 'tapi', 'kesalahan', 'mu']</t>
+          <t>['until', 'tomorrow', 'apaan', 'sihhh']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['until', 'tomorrow', 'apaan', 'sih']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['atasan', 'kerja', 'kerasmu', 'kesalahan', 'mu']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['atas', 'kerja', 'keras', 'salah', 'mu']</t>
+          <t>['until', 'tomorrow']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['until', 'tomorrow']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20661</v>
+        <v>24113</v>
       </c>
       <c r="C33" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>satu kesalahan akan melenyapkan kerja keras anda</t>
+          <t>nih bapak nakutin aja</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['satu', 'kesalahan', 'akan', 'melenyapkan', 'kerja', 'keras', 'anda']</t>
+          <t>['nih', 'bapak', 'nakutin', 'aja']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['nih', 'bapak', 'menakutkan', 'saja']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['kesalahan', 'melenyapkan', 'kerja', 'keras']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['salah', 'lenyap', 'kerja', 'keras']</t>
+          <t>['menakutkan']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['takut']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20662</v>
+        <v>24114</v>
       </c>
       <c r="C34" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>bagi klean yang kerja keras percuma lu akan kalah sama yang cari muka</t>
+          <t>gara gara corona banyak yang tanya kerja tanpa keluar rumah jawaban gw dadio pelacur cuk merg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['bagi', 'klean', 'yang', 'kerja', 'keras', 'percuma', 'lu', 'akan', 'kalah', 'sama', 'yang', 'cari', 'muka']</t>
+          <t>['gara', 'gara', 'corona', 'banyak', 'yang', 'tanya', 'kerja', 'tanpa', 'keluar', 'rumah', 'jawaban', 'gw', 'dadio', 'pelacur', 'cuk', 'merg']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['gara', 'gara', 'corona', 'banyak', 'yang', 'tanya', 'kerja', 'tanpa', 'keluar', 'rumah', 'jawaban', 'gue', 'jadilah', 'pelacur', 'cuk', 'merg']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['klean', 'kerja', 'keras', 'lu', 'kalah', 'cari', 'muka']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['klean', 'kerja', 'keras', 'lu', 'kalah', 'cari', 'muka']</t>
+          <t>['gara', 'gara', 'corona', 'kerja', 'rumah', 'gue', 'pelacur', 'cuk', 'merg']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['gara', 'gara', 'corona', 'kerja', 'rumah', 'gue', 'lacur', 'cuk', 'merg']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20663</v>
+        <v>24115</v>
       </c>
       <c r="C35" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>dekat dengan ibukota jauh dari ibu kandung</t>
+          <t>yang diingat atasan itu bukan kerja kerasmu tapi kesalahan mu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['dekat', 'dengan', 'ibukota', 'jauh', 'dari', 'ibu', 'kandung']</t>
+          <t>['yang', 'diingat', 'atasan', 'itu', 'bukan', 'kerja', 'kerasmu', 'tapi', 'kesalahan', 'mu']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['yang', 'diingat', 'atasan', 'itu', 'bukan', 'kerja', 'kerasmu', 'tapi', 'kesalahan', 'mu']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['ibukota', 'kandung']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['ibukota', 'kandung']</t>
+          <t>['atasan', 'kerja', 'kerasmu', 'kesalahan', 'mu']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['atas', 'kerja', 'keras', 'salah', 'mu']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20664</v>
+        <v>24116</v>
       </c>
       <c r="C36" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>awas jakarta banjir cewe jangan pada keluar untuk berenang ntr hamil loh ya</t>
+          <t>satu kesalahan akan melenyapkan kerja keras anda</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['awas', 'jakarta', 'banjir', 'cewe', 'jangan', 'pada', 'keluar', 'untuk', 'berenang', 'ntr', 'hamil', 'loh', 'ya']</t>
+          <t>['satu', 'kesalahan', 'akan', 'melenyapkan', 'kerja', 'keras', 'anda']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['satu', 'kesalahan', 'akan', 'melenyapkan', 'kerja', 'keras', 'anda']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['awas', 'jakarta', 'banjir', 'cewe', 'berenang', 'ntr', 'hamil']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['awas', 'jakarta', 'banjir', 'cewe', 'renang', 'ntr', 'hamil']</t>
+          <t>['kesalahan', 'melenyapkan', 'kerja', 'keras']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['salah', 'lenyap', 'kerja', 'keras']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20665</v>
+        <v>24117</v>
       </c>
       <c r="C37" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>mulai sekarang laki laki klo renang pakek baju renang kek gini ya</t>
+          <t>bagi klean yang kerja keras percuma lu akan kalah sama yang cari muka</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['mulai', 'sekarang', 'laki', 'laki', 'klo', 'renang', 'pakek', 'baju', 'renang', 'kek', 'gini', 'ya']</t>
+          <t>['bagi', 'klean', 'yang', 'kerja', 'keras', 'percuma', 'lu', 'akan', 'kalah', 'sama', 'yang', 'cari', 'muka']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['bagi', 'kalian', 'yang', 'kerja', 'keras', 'percuma', 'kamu', 'akan', 'kalah', 'sama', 'yang', 'cari', 'muka']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['laki', 'laki', 'renang', 'pakek', 'baju', 'renang', 'kek', 'gini']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['laki', 'laki', 'renang', 'pakek', 'baju', 'renang', 'kek', 'gin']</t>
+          <t>['kerja', 'keras', 'kalah', 'cari', 'muka']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['kerja', 'keras', 'kalah', 'cari', 'muka']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20666</v>
+        <v>24118</v>
       </c>
       <c r="C38" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>mah aku hamill siapa yang hamilin kamu ga tau mah rame banget soalnya</t>
+          <t>dekat dengan ibukota jauh dari ibu kandung</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['mah', 'aku', 'hamill', 'siapa', 'yang', 'hamilin', 'kamu', 'ga', 'tau', 'mah', 'rame', 'banget', 'soalnya']</t>
+          <t>['dekat', 'dengan', 'ibukota', 'jauh', 'dari', 'ibu', 'kandung']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['dekat', 'dengan', 'ibu, kota', 'jauh', 'dari', 'ibu', 'kandung']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['mah', 'hamill', 'hamilin', 'mah', 'rame', 'banget']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['mah', 'hamill', 'hamilin', 'mah', 'rame', 'banget']</t>
+          <t>['ibu, kota', 'kandung']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['ibu kota', 'kandung']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20667</v>
+        <v>24119</v>
       </c>
       <c r="C39" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>maenin dong bang gak skalian buat video di youtube bang</t>
+          <t>awas jakarta banjir cewe jangan pada keluar untuk berenang ntr hamil loh ya</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['maenin', 'dong', 'bang', 'gak', 'skalian', 'buat', 'video', 'di', 'youtube', 'bang']</t>
+          <t>['awas', 'jakarta', 'banjir', 'cewe', 'jangan', 'pada', 'keluar', 'untuk', 'berenang', 'ntr', 'hamil', 'loh', 'ya']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['awas', 'jakarta', 'banjir', 'cewek', 'jangan', 'pada', 'keluar', 'untuk', 'berenang', 'nanti', 'hamil', 'lah', 'ya']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['maenin', 'bang', 'skalian', 'video', 'youtube', 'bang']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['maenin', 'bang', 'skalian', 'video', 'youtube', 'bang']</t>
+          <t>['awas', 'jakarta', 'banjir', 'cewek', 'berenang', 'hamil']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['awas', 'jakarta', 'banjir', 'cewek', 'renang', 'hamil']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20668</v>
+        <v>24120</v>
       </c>
       <c r="C40" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>apasih gunanya minuman keras bikin ganteng atau bikin keren</t>
+          <t>mulai sekarang laki laki klo renang pakek baju renang kek gini ya</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['apasih', 'gunanya', 'minuman', 'keras', 'bikin', 'ganteng', 'atau', 'bikin', 'keren']</t>
+          <t>['mulai', 'sekarang', 'laki', 'laki', 'klo', 'renang', 'pakek', 'baju', 'renang', 'kek', 'gini', 'ya']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['mulai', 'sekarang', 'laki', 'laki', 'kalau', 'renang', 'pakai', 'baju', 'renang', 'kayak', 'begini', 'ya']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['apasih', 'gunanya', 'minuman', 'keras', 'ganteng', 'keren']</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['apasih', 'guna', 'minum', 'keras', 'ganteng', 'keren']</t>
+          <t>['laki', 'laki', 'renang', 'pakai', 'baju', 'renang', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['laki', 'laki', 'renang', 'pakai', 'baju', 'renang', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20669</v>
+        <v>24121</v>
       </c>
       <c r="C41" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>panjang umur untuk semua halhal baik</t>
+          <t>mah aku hamill siapa yang hamilin kamu ga tau mah rame banget soalnya</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['panjang', 'umur', 'untuk', 'semua', 'halhal', 'baik']</t>
+          <t>['mah', 'aku', 'hamill', 'siapa', 'yang', 'hamilin', 'kamu', 'ga', 'tau', 'mah', 'rame', 'banget', 'soalnya']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['adalah', 'aku', 'hamill', 'siapa', 'yang', 'hamilin', 'kamu', 'tidak', 'tau', 'adalah', 'ramai', 'banget', 'soalnya']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['umur', 'halhal']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['umur', 'halhal']</t>
+          <t>['hamill', 'hamilin', 'ramai', 'banget']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['hamill', 'hamilin', 'ramai', 'banget']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20670</v>
+        <v>24122</v>
       </c>
       <c r="C42" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>pernah ga sih lu saat berduaan sama cewe saat itu juga ada yang berdiri tegak menantang padahal bukan keadilan</t>
+          <t>maenin dong bang gak skalian buat video di youtube bang</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['pernah', 'ga', 'sih', 'lu', 'saat', 'berduaan', 'sama', 'cewe', 'saat', 'itu', 'juga', 'ada', 'yang', 'berdiri', 'tegak', 'menantang', 'padahal', 'bukan', 'keadilan']</t>
+          <t>['maenin', 'dong', 'bang', 'gak', 'skalian', 'buat', 'video', 'di', 'youtube', 'bang']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['mainkan', 'dong', 'bang', 'tidak', 'sekalian', 'buat', 'video', 'di', 'youtube', 'bang']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['lu', 'berduaan', 'cewe', 'berdiri', 'tegak', 'menantang', 'keadilan']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['lu', 'dua', 'cewe', 'diri', 'tegak', 'tantang', 'adil']</t>
+          <t>['mainkan', 'bang', 'video', 'youtube', 'bang']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['main', 'bang', 'video', 'youtube', 'bang']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20671</v>
+        <v>24123</v>
       </c>
       <c r="C43" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>cowok vs cowok obrolan gak ada habisnya dipisuhin pun gak ada masalah adanya malah tertawa suka ria cowok vs</t>
+          <t>apasih gunanya minuman keras bikin ganteng atau bikin keren</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['cowok', 'vs', 'cowok', 'obrolan', 'gak', 'ada', 'habisnya', 'dipisuhin', 'pun', 'gak', 'ada', 'masalah', 'adanya', 'malah', 'tertawa', 'suka', 'ria', 'cowok', 'vs']</t>
+          <t>['apasih', 'gunanya', 'minuman', 'keras', 'bikin', 'ganteng', 'atau', 'bikin', 'keren']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 19 outcomes&gt;</t>
+          <t>['apa, sih', 'gunanya', 'minuman', 'keras', 'bikin', 'ganteng', 'atau', 'bikin', 'keren']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['cowok', 'vs', 'cowok', 'obrolan', 'habisnya', 'dipisuhin', 'tertawa', 'suka', 'ria', 'cowok', 'vs']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['cowok', 'vs', 'cowok', 'obrol', 'habis', 'dipisuhin', 'tertawa', 'suka', 'ria', 'cowok', 'vs']</t>
+          <t>['apa, sih', 'gunanya', 'minuman', 'keras', 'ganteng', 'keren']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['apa sih', 'guna', 'minum', 'keras', 'ganteng', 'keren']</t>
         </is>
       </c>
     </row>
@@ -1987,32 +2202,160 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20672</v>
+        <v>24124</v>
       </c>
       <c r="C44" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>panjang umur untuk semua halhal baik</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['panjang', 'umur', 'untuk', 'semua', 'halhal', 'baik']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['panjang', 'umur', 'untuk', 'semua', 'halhal', 'baik']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['umur', 'halhal']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['umur', 'halhal']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>24125</v>
+      </c>
+      <c r="C45" t="n">
+        <v>289</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>pernah ga sih lu saat berduaan sama cewe saat itu juga ada yang berdiri tegak menantang padahal bukan keadilan</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['pernah', 'ga', 'sih', 'lu', 'saat', 'berduaan', 'sama', 'cewe', 'saat', 'itu', 'juga', 'ada', 'yang', 'berdiri', 'tegak', 'menantang', 'padahal', 'bukan', 'keadilan']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['pernah', 'tidak', 'sih', 'kamu', 'saat', 'berduaan', 'sama', 'cewek', 'saat', 'itu', 'juga', 'ada', 'yang', 'berdiri', 'tegak', 'menantang', 'padahal', 'bukan', 'keadilan']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['berduaan', 'cewek', 'berdiri', 'tegak', 'menantang', 'keadilan']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['dua', 'cewek', 'diri', 'tegak', 'tantang', 'adil']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>24126</v>
+      </c>
+      <c r="C46" t="n">
+        <v>289</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>cowok vs cowok obrolan gak ada habisnya dipisuhin pun gak ada masalah adanya malah tertawa suka ria cowok vs</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['cowok', 'vs', 'cowok', 'obrolan', 'gak', 'ada', 'habisnya', 'dipisuhin', 'pun', 'gak', 'ada', 'masalah', 'adanya', 'malah', 'tertawa', 'suka', 'ria', 'cowok', 'vs']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['cowok', 'lawan', 'cowok', 'obrolan', 'tidak', 'ada', 'habisnya', 'dipisuhin', 'pun', 'tidak', 'ada', 'masalah', 'adanya', 'malah', 'tertawa', 'suka', 'ria', 'cowok', 'lawan']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 14 samples and 19 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['cowok', 'lawan', 'cowok', 'obrolan', 'habisnya', 'dipisuhin', 'tertawa', 'suka', 'ria', 'cowok', 'lawan']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['cowok', 'lawan', 'cowok', 'obrol', 'habis', 'dipisuhin', 'tertawa', 'suka', 'ria', 'cowok', 'lawan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>24127</v>
+      </c>
+      <c r="C47" t="n">
+        <v>289</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>rindu sange</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>['rindu', 'sange']</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['rindu', 'sange']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['rindu', 'sange']</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['rindu', 'sange']</t>
         </is>
